--- a/Guatemala/CENSO 2018/Cuadro A14.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A14.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Compartida_DCMKH\Tablas de Salida Finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFF808D-6DF6-4A96-90CE-11A2547A0311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A14_1" sheetId="2" r:id="rId1"/>
     <sheet name="A14_2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="387">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1114,12 +1124,84 @@
   </si>
   <si>
     <t>Total nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muj&gt;15-HNV: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muj&gt;15-HVA: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muj&gt;15-EMPH: </t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: 0</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: 1</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: 2</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: 3</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: 4</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: 5 o más</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HNV: No declarado</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HVA: 0</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HVA: 1</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HVA: 2</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HVA: 3</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HVA: 4</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-HVA: 5 o más</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: Antes de 15</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: 15 - 17 años</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: 18 - 19 años</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: 20 - 24 años</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: 25 - 29 años</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: 30 años o más</t>
+  </si>
+  <si>
+    <t>Muj&gt;15-EMPH: No declarado</t>
+  </si>
+  <si>
+    <t>Código2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
   </numFmts>
@@ -1216,7 +1298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1300,6 +1382,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1307,7 +1402,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1365,13 +1460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1392,6 +1480,15 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,15 +1501,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
@@ -1420,7 +1535,711 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1431,6 +2250,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F601ABA-03AC-4D87-B527-F560BBE5F1FE}" name="MUJ_NHIJOS" displayName="MUJ_NHIJOS" ref="A6:Y346" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="27" tableBorderDxfId="28" headerRowCellStyle="Neutral">
+  <autoFilter ref="A6:Y346" xr:uid="{B8BB5725-EF75-41F9-B84D-0EA6422858A9}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{B1EA78A6-52A8-4F2D-B70D-68A8AA3CEA85}" name="Código" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{4BE7DED8-367E-499F-9B4D-22FE1C82ACA5}" name="Departamento" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3CDD74FB-90F0-4E70-933B-1B37DACFA520}" name="Código2" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{1D9E7136-DBC1-4E04-A5E0-33B1DC4DE9C9}" name="Municipio" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{E59084C5-F4F4-44B0-925D-F7E873920370}" name="Total de mujeres de 15 años y más" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{662CD7D0-19D5-45BD-9F79-395296B892C6}" name="Muj&gt;15-HNV: 0" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{DA8B0CD4-1B99-4817-A3CC-32C51ABFC906}" name="Muj&gt;15-HNV: 1" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{819FEF06-C3AD-44CF-9C5B-C491ABA25C5B}" name="Muj&gt;15-HNV: 2" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D0AB8B7F-A50E-45CF-B48E-B5838276D407}" name="Muj&gt;15-HNV: 3" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{039D66AB-E519-4D15-85B1-F99E20EE3FB9}" name="Muj&gt;15-HNV: 4" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{804E740D-CB67-480F-8520-B40DA0C694B7}" name="Muj&gt;15-HNV: 5 o más" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{DB203CCD-C1C5-4D64-8557-BC5D3813ACAF}" name="Muj&gt;15-HNV: No declarado" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{F32B4E01-F2D7-4C2F-8D91-C08B3418ED7A}" name="Muj&gt;15-HVA: 0" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{F5222AA6-0923-4AC4-82A4-22D609EAFB41}" name="Muj&gt;15-HVA: 1" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{C3400488-77BD-4A72-9CF5-22D39FE9AD3D}" name="Muj&gt;15-HVA: 2" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{FB280296-748D-40A8-88C5-B7E0349E4616}" name="Muj&gt;15-HVA: 3" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{254F0CF5-2FDB-4BCC-B771-38A84AC0C116}" name="Muj&gt;15-HVA: 4" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{6CA38CC6-8082-4BC8-B9A3-98F717EE123A}" name="Muj&gt;15-HVA: 5 o más" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{3D8BCF86-65C1-4FEF-9292-F69EB13AFC6A}" name="Muj&gt;15-EMPH: Antes de 15" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{F0176C75-6D39-42AE-902F-767887B31A25}" name="Muj&gt;15-EMPH: 15 - 17 años" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{CE8D7964-3E5F-41E5-AB2A-644D25C63EA6}" name="Muj&gt;15-EMPH: 18 - 19 años" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{23650ED5-3620-4C61-9753-E5CAD5BF20D2}" name="Muj&gt;15-EMPH: 20 - 24 años" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{4F68DB7E-F50D-4B7D-835A-3CC60A169796}" name="Muj&gt;15-EMPH: 25 - 29 años" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{3B038A82-BDBF-4E0C-9D77-0CF0037A667E}" name="Muj&gt;15-EMPH: 30 años o más" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{60C049A2-98C4-43BC-8E57-858B78987C0B}" name="Muj&gt;15-EMPH: No declarado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1695,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1703,39 +2556,39 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="19" customWidth="1"/>
-    <col min="4" max="7" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="19" customWidth="1"/>
+    <col min="4" max="7" width="9.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="19" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="19" customWidth="1"/>
-    <col min="18" max="22" width="10.140625" style="19" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="19" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="19"/>
+    <col min="18" max="22" width="10.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="19" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
@@ -1762,17 +2615,17 @@
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
       <c r="P5" s="45"/>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="41"/>
+    </row>
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
@@ -1837,1706 +2690,1706 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+    </row>
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="28">
         <v>5219586</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <v>1293779</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>693046</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <v>749347</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="28">
         <v>658282</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="28">
         <v>423495</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="28">
         <v>1076762</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="28">
         <v>324875</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="28">
         <v>15743</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="28">
         <v>721898</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="28">
         <v>791832</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="28">
         <v>682649</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="28">
         <v>437651</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="28">
         <v>951159</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="28">
         <v>82201</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="28">
         <v>883430</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="28">
         <v>817515</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="28">
         <v>1138314</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="28">
         <v>348221</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="28">
         <v>141758</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="28">
         <v>189493</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>1167867</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>292817</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>164940</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>211672</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="31">
         <v>181794</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="31">
         <v>97486</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="31">
         <v>133612</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="31">
         <v>85546</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="31">
         <v>3902</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="31">
         <v>171852</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="31">
         <v>221717</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="31">
         <v>184250</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="31">
         <v>95246</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="31">
         <v>112537</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="31">
         <v>11251</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="31">
         <v>133025</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="31">
         <v>152407</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="31">
         <v>277466</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="31">
         <v>111604</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="31">
         <v>52003</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="31">
         <v>51748</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
         <v>2</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="31">
         <v>62952</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>13564</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <v>8778</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>9871</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="31">
         <v>8871</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="31">
         <v>5395</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="31">
         <v>12228</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="31">
         <v>4245</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="31">
         <v>175</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="31">
         <v>9113</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="31">
         <v>10479</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="31">
         <v>9083</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="31">
         <v>5547</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="31">
         <v>10746</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="31">
         <v>852</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="31">
         <v>10626</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="31">
         <v>10463</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="31">
         <v>14829</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="31">
         <v>4506</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="31">
         <v>1746</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="31">
         <v>2121</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
         <v>3</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="31">
         <v>121806</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="31">
         <v>27439</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="31">
         <v>16150</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>19398</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="31">
         <v>16724</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <v>9434</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="31">
         <v>19199</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="31">
         <v>13462</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="31">
         <v>385</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="31">
         <v>16770</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="31">
         <v>20460</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <v>17079</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="31">
         <v>9450</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="31">
         <v>16761</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="31">
         <v>943</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="31">
         <v>13933</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="31">
         <v>16743</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="31">
         <v>29289</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="31">
         <v>10135</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="31">
         <v>4265</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="31">
         <v>5597</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
         <v>4</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="31">
         <v>214618</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="31">
         <v>63208</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="31">
         <v>24804</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>25769</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="31">
         <v>23386</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="31">
         <v>16260</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="31">
         <v>49705</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="31">
         <v>11486</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="31">
         <v>573</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="31">
         <v>25930</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="31">
         <v>27550</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="31">
         <v>24708</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="31">
         <v>17271</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="31">
         <v>43892</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="31">
         <v>1578</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="31">
         <v>27270</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="31">
         <v>32348</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="31">
         <v>51425</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="31">
         <v>15374</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="31">
         <v>5532</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="31">
         <v>6397</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>5</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="31">
         <v>254799</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="31">
         <v>53117</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <v>36037</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>42416</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="31">
         <v>39244</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="31">
         <v>23045</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="31">
         <v>45416</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="31">
         <v>15524</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="31">
         <v>956</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="31">
         <v>37970</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="31">
         <v>45563</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="31">
         <v>40779</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="31">
         <v>23443</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="31">
         <v>37447</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="31">
         <v>6105</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="31">
         <v>53327</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="31">
         <v>42759</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="31">
         <v>54819</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="31">
         <v>14601</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="31">
         <v>4925</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="31">
         <v>9622</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
         <v>6</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="31">
         <v>138700</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="31">
         <v>33308</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <v>18983</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>21070</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="31">
         <v>18704</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="31">
         <v>12316</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="31">
         <v>29506</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="31">
         <v>4813</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="31">
         <v>459</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="31">
         <v>19858</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="31">
         <v>22374</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="31">
         <v>19722</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="31">
         <v>12757</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="31">
         <v>25409</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="31">
         <v>2630</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="31">
         <v>27254</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="31">
         <v>23455</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="31">
         <v>31482</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="31">
         <v>8585</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="31">
         <v>3083</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="31">
         <v>4090</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
         <v>7</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="31">
         <v>151764</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="31">
         <v>44159</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <v>19512</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>17465</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="31">
         <v>14075</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="31">
         <v>10481</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="31">
         <v>34337</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="31">
         <v>11735</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="31">
         <v>376</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="31">
         <v>20187</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="31">
         <v>18436</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="31">
         <v>14928</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="31">
         <v>11243</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="31">
         <v>30700</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="31">
         <v>1879</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="31">
         <v>22842</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16" s="31">
         <v>22902</v>
       </c>
-      <c r="T16" s="34">
+      <c r="T16" s="31">
         <v>30375</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16" s="31">
         <v>8759</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="31">
         <v>3274</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="31">
         <v>5839</v>
       </c>
     </row>
-    <row r="17" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+    <row r="17" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="31">
         <v>150618</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="31">
         <v>43753</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="31">
         <v>16874</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <v>15688</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="31">
         <v>13224</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="31">
         <v>10367</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="31">
         <v>37314</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="31">
         <v>13398</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="31">
         <v>456</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="31">
         <v>17733</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="31">
         <v>16933</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="31">
         <v>14250</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="31">
         <v>11223</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="31">
         <v>32872</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="31">
         <v>1430</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="31">
         <v>20472</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="31">
         <v>22272</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="31">
         <v>30184</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="31">
         <v>8493</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="31">
         <v>3595</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17" s="31">
         <v>7021</v>
       </c>
     </row>
-    <row r="18" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+    <row r="18" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
         <v>9</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="31">
         <v>297433</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="31">
         <v>77811</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="31">
         <v>39778</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>41587</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="31">
         <v>37545</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="31">
         <v>24357</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="31">
         <v>59526</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="31">
         <v>16829</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="31">
         <v>873</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="31">
         <v>41323</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="31">
         <v>43969</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="31">
         <v>39335</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="31">
         <v>25353</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="31">
         <v>51940</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="31">
         <v>3671</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="31">
         <v>47524</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="31">
         <v>45939</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18" s="31">
         <v>65816</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="31">
         <v>20274</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="31">
         <v>8227</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18" s="31">
         <v>11342</v>
       </c>
     </row>
-    <row r="19" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+    <row r="19" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29">
         <v>10</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="31">
         <v>188850</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="31">
         <v>45046</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="31">
         <v>24840</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <v>26443</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="31">
         <v>25770</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="31">
         <v>16367</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="31">
         <v>42094</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="31">
         <v>8290</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="31">
         <v>643</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="31">
         <v>26037</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="31">
         <v>28298</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="31">
         <v>26923</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="31">
         <v>17173</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="31">
         <v>36440</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="31">
         <v>3677</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="31">
         <v>37148</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="31">
         <v>31201</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="31">
         <v>42261</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="31">
         <v>11362</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="31">
         <v>4097</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="31">
         <v>5768</v>
       </c>
     </row>
-    <row r="20" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+    <row r="20" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
         <v>11</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="31">
         <v>113538</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="31">
         <v>26131</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="31">
         <v>15152</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>16246</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="31">
         <v>15896</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="31">
         <v>9801</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="31">
         <v>24514</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="31">
         <v>5798</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="31">
         <v>442</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="31">
         <v>15748</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="31">
         <v>17297</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="31">
         <v>16368</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="31">
         <v>10220</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="31">
         <v>21534</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="31">
         <v>2157</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="31">
         <v>21939</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S20" s="31">
         <v>18576</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20" s="31">
         <v>25677</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20" s="31">
         <v>7046</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20" s="31">
         <v>2580</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20" s="31">
         <v>3634</v>
       </c>
     </row>
-    <row r="21" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+    <row r="21" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
         <v>12</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="31">
         <v>341864</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="31">
         <v>74146</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="31">
         <v>42838</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>43344</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="31">
         <v>40899</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="31">
         <v>29824</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="31">
         <v>90893</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="31">
         <v>19920</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="31">
         <v>959</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="31">
         <v>44511</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="31">
         <v>46043</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="31">
         <v>43012</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="31">
         <v>31575</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="31">
         <v>81698</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="31">
         <v>5048</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="31">
         <v>64803</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="31">
         <v>61796</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="31">
         <v>78620</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="31">
         <v>19506</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="31">
         <v>6535</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="31">
         <v>11490</v>
       </c>
     </row>
-    <row r="22" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+    <row r="22" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
         <v>13</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="31">
         <v>387926</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="31">
         <v>92395</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="31">
         <v>51283</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="31">
         <v>48118</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="31">
         <v>42676</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="31">
         <v>32238</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="31">
         <v>102155</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="31">
         <v>19061</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="31">
         <v>1073</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="31">
         <v>53147</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="31">
         <v>50683</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="31">
         <v>44793</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="31">
         <v>34307</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="31">
         <v>92467</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="31">
         <v>6092</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R22" s="31">
         <v>77677</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22" s="31">
         <v>71335</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T22" s="31">
         <v>81075</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22" s="31">
         <v>19946</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="31">
         <v>7327</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22" s="31">
         <v>13018</v>
       </c>
     </row>
-    <row r="23" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+    <row r="23" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
         <v>14</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="31">
         <v>311258</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="31">
         <v>85817</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="31">
         <v>35719</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <v>33803</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="31">
         <v>28368</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="31">
         <v>22646</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="31">
         <v>84373</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="31">
         <v>20532</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="31">
         <v>717</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="31">
         <v>37134</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="31">
         <v>35582</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="31">
         <v>29848</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="31">
         <v>24392</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="31">
         <v>77236</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="31">
         <v>5438</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="31">
         <v>58146</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23" s="31">
         <v>51234</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23" s="31">
         <v>57942</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23" s="31">
         <v>14193</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23" s="31">
         <v>5743</v>
       </c>
-      <c r="W23" s="34">
+      <c r="W23" s="31">
         <v>12213</v>
       </c>
     </row>
-    <row r="24" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+    <row r="24" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
         <v>15</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="31">
         <v>102730</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="31">
         <v>26642</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="31">
         <v>14117</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>13517</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="31">
         <v>11965</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="31">
         <v>8685</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="31">
         <v>24892</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="31">
         <v>2912</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="31">
         <v>287</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="31">
         <v>14654</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="31">
         <v>14243</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24" s="31">
         <v>12564</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="31">
         <v>9060</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="31">
         <v>22368</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="31">
         <v>1730</v>
       </c>
-      <c r="R24" s="34">
+      <c r="R24" s="31">
         <v>21185</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24" s="31">
         <v>18079</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24" s="31">
         <v>21753</v>
       </c>
-      <c r="U24" s="34">
+      <c r="U24" s="31">
         <v>5456</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24" s="31">
         <v>2126</v>
       </c>
-      <c r="W24" s="34">
+      <c r="W24" s="31">
         <v>2847</v>
       </c>
     </row>
-    <row r="25" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+    <row r="25" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>16</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="31">
         <v>377907</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="31">
         <v>92582</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="31">
         <v>51426</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="31">
         <v>48316</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="31">
         <v>39339</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="31">
         <v>28798</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="31">
         <v>96471</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="31">
         <v>20975</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="31">
         <v>1029</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="31">
         <v>53598</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="31">
         <v>50838</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="31">
         <v>41003</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="31">
         <v>30279</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="31">
         <v>87603</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="31">
         <v>9279</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="31">
         <v>79064</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25" s="31">
         <v>61206</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25" s="31">
         <v>75494</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="31">
         <v>20823</v>
       </c>
-      <c r="V25" s="34">
+      <c r="V25" s="31">
         <v>8361</v>
       </c>
-      <c r="W25" s="34">
+      <c r="W25" s="31">
         <v>10123</v>
       </c>
     </row>
-    <row r="26" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+    <row r="26" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
         <v>17</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="31">
         <v>174856</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="31">
         <v>41922</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="31">
         <v>24368</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="31">
         <v>23717</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="31">
         <v>19538</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="31">
         <v>13569</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="31">
         <v>41700</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="31">
         <v>10042</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="31">
         <v>405</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="31">
         <v>25023</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="31">
         <v>24620</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="31">
         <v>20130</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="31">
         <v>14216</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="31">
         <v>38498</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="31">
         <v>5980</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="31">
         <v>42140</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="31">
         <v>27767</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="31">
         <v>31036</v>
       </c>
-      <c r="U26" s="34">
+      <c r="U26" s="31">
         <v>7734</v>
       </c>
-      <c r="V26" s="34">
+      <c r="V26" s="31">
         <v>2729</v>
       </c>
-      <c r="W26" s="34">
+      <c r="W26" s="31">
         <v>5506</v>
       </c>
     </row>
-    <row r="27" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+    <row r="27" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
         <v>18</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="31">
         <v>138111</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="31">
         <v>33190</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="31">
         <v>18909</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="31">
         <v>20380</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="31">
         <v>18414</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="31">
         <v>10994</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="31">
         <v>29262</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="31">
         <v>6962</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="31">
         <v>452</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="31">
         <v>19690</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="31">
         <v>21668</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="31">
         <v>18967</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="31">
         <v>11332</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="31">
         <v>25850</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="31">
         <v>4136</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="31">
         <v>29381</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="31">
         <v>21860</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="31">
         <v>27260</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27" s="31">
         <v>7545</v>
       </c>
-      <c r="V27" s="34">
+      <c r="V27" s="31">
         <v>2672</v>
       </c>
-      <c r="W27" s="34">
+      <c r="W27" s="31">
         <v>5105</v>
       </c>
     </row>
-    <row r="28" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+    <row r="28" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
         <v>19</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="31">
         <v>87857</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="31">
         <v>18300</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="31">
         <v>12005</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="31">
         <v>13770</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="31">
         <v>12305</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="31">
         <v>7212</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="31">
         <v>16746</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="31">
         <v>7519</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="31">
         <v>250</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="31">
         <v>12557</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="31">
         <v>14615</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="31">
         <v>12651</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="31">
         <v>7303</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="31">
         <v>14662</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="31">
         <v>1705</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="31">
         <v>16136</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28" s="31">
         <v>13776</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="31">
         <v>18945</v>
       </c>
-      <c r="U28" s="34">
+      <c r="U28" s="31">
         <v>5906</v>
       </c>
-      <c r="V28" s="34">
+      <c r="V28" s="31">
         <v>2401</v>
       </c>
-      <c r="W28" s="34">
+      <c r="W28" s="31">
         <v>3169</v>
       </c>
     </row>
-    <row r="29" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+    <row r="29" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
         <v>20</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="31">
         <v>142934</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="31">
         <v>36022</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="31">
         <v>18573</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="31">
         <v>18431</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="31">
         <v>15802</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="31">
         <v>10952</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="31">
         <v>33653</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="31">
         <v>9501</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="31">
         <v>424</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="31">
         <v>19355</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="31">
         <v>19661</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N29" s="31">
         <v>16724</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="31">
         <v>11748</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="31">
         <v>29499</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="32">
         <v>2262</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="32">
         <v>25867</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="32">
         <v>22338</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="32">
         <v>29580</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="32">
         <v>9124</v>
       </c>
-      <c r="V29" s="34">
+      <c r="V29" s="31">
         <v>3871</v>
       </c>
-      <c r="W29" s="34">
+      <c r="W29" s="31">
         <v>4369</v>
       </c>
     </row>
-    <row r="30" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+    <row r="30" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
         <v>21</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="31">
         <v>116469</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="31">
         <v>30565</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="31">
         <v>15101</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="31">
         <v>14894</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="31">
         <v>12655</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="31">
         <v>8857</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="31">
         <v>28884</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="31">
         <v>5513</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="31">
         <v>303</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="31">
         <v>15730</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="31">
         <v>15757</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="31">
         <v>13331</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="31">
         <v>9441</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="31">
         <v>25829</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="Q30" s="32">
         <v>1911</v>
       </c>
-      <c r="R30" s="35">
+      <c r="R30" s="32">
         <v>21634</v>
       </c>
-      <c r="S30" s="35">
+      <c r="S30" s="32">
         <v>19193</v>
       </c>
-      <c r="T30" s="35">
+      <c r="T30" s="32">
         <v>24880</v>
       </c>
-      <c r="U30" s="35">
+      <c r="U30" s="32">
         <v>6873</v>
       </c>
-      <c r="V30" s="34">
+      <c r="V30" s="31">
         <v>2631</v>
       </c>
-      <c r="W30" s="34">
+      <c r="W30" s="31">
         <v>3269</v>
       </c>
     </row>
-    <row r="31" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+    <row r="31" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
         <v>22</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="31">
         <v>174729</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="31">
         <v>41845</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="31">
         <v>22859</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="31">
         <v>23432</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="31">
         <v>21088</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="31">
         <v>14411</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="32">
         <v>40282</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="32">
         <v>10812</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="32">
         <v>604</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="32">
         <v>23978</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="32">
         <v>25046</v>
       </c>
-      <c r="N31" s="35">
+      <c r="N31" s="32">
         <v>22201</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="32">
         <v>15072</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P31" s="32">
         <v>35171</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q31" s="32">
         <v>2447</v>
       </c>
-      <c r="R31" s="35">
+      <c r="R31" s="32">
         <v>32037</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="32">
         <v>29866</v>
       </c>
-      <c r="T31" s="35">
+      <c r="T31" s="32">
         <v>38106</v>
       </c>
-      <c r="U31" s="35">
+      <c r="U31" s="32">
         <v>10376</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="32">
         <v>4035</v>
       </c>
-      <c r="W31" s="35">
+      <c r="W31" s="32">
         <v>5205</v>
       </c>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>360</v>
       </c>
       <c r="B33" s="15"/>
@@ -3561,64 +4414,253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E346" sqref="E346:Y346"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="19" customWidth="1"/>
-    <col min="6" max="11" width="9" style="19" customWidth="1"/>
-    <col min="12" max="12" width="11" style="19" customWidth="1"/>
-    <col min="13" max="18" width="9" style="19" customWidth="1"/>
-    <col min="19" max="19" width="11" style="19" customWidth="1"/>
-    <col min="20" max="24" width="10.140625" style="19" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="19" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="10.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="19" customWidth="1"/>
+    <col min="6" max="10" width="15.88671875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="26.21875" style="19" customWidth="1"/>
+    <col min="13" max="17" width="15.6640625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" style="19" customWidth="1"/>
+    <col min="20" max="23" width="26" style="19" customWidth="1"/>
+    <col min="24" max="24" width="27.88671875" style="19" customWidth="1"/>
+    <col min="25" max="25" width="27.5546875" style="19" customWidth="1"/>
+    <col min="26" max="16384" width="11.44140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="46" t="str">
+        <f>+F2&amp;F3</f>
+        <v>Muj&gt;15-HNV: 0</v>
+      </c>
+      <c r="G1" s="46" t="str">
+        <f t="shared" ref="G1:M1" si="0">+G2&amp;G3</f>
+        <v>Muj&gt;15-HNV: 1</v>
+      </c>
+      <c r="H1" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Muj&gt;15-HNV: 2</v>
+      </c>
+      <c r="I1" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Muj&gt;15-HNV: 3</v>
+      </c>
+      <c r="J1" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Muj&gt;15-HNV: 4</v>
+      </c>
+      <c r="K1" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Muj&gt;15-HNV: 5 o más</v>
+      </c>
+      <c r="L1" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Muj&gt;15-HNV: No declarado</v>
+      </c>
+      <c r="M1" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Muj&gt;15-HVA: 0</v>
+      </c>
+      <c r="N1" s="46" t="str">
+        <f t="shared" ref="N1" si="1">+N2&amp;N3</f>
+        <v>Muj&gt;15-HVA: 1</v>
+      </c>
+      <c r="O1" s="46" t="str">
+        <f t="shared" ref="O1" si="2">+O2&amp;O3</f>
+        <v>Muj&gt;15-HVA: 2</v>
+      </c>
+      <c r="P1" s="46" t="str">
+        <f t="shared" ref="P1" si="3">+P2&amp;P3</f>
+        <v>Muj&gt;15-HVA: 3</v>
+      </c>
+      <c r="Q1" s="46" t="str">
+        <f t="shared" ref="Q1" si="4">+Q2&amp;Q3</f>
+        <v>Muj&gt;15-HVA: 4</v>
+      </c>
+      <c r="R1" s="46" t="str">
+        <f t="shared" ref="R1:S1" si="5">+R2&amp;R3</f>
+        <v>Muj&gt;15-HVA: 5 o más</v>
+      </c>
+      <c r="S1" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>Muj&gt;15-EMPH: Antes de 15</v>
+      </c>
+      <c r="T1" s="46" t="str">
+        <f t="shared" ref="T1" si="6">+T2&amp;T3</f>
+        <v>Muj&gt;15-EMPH: 15 - 17 años</v>
+      </c>
+      <c r="U1" s="46" t="str">
+        <f t="shared" ref="U1" si="7">+U2&amp;U3</f>
+        <v>Muj&gt;15-EMPH: 18 - 19 años</v>
+      </c>
+      <c r="V1" s="46" t="str">
+        <f t="shared" ref="V1" si="8">+V2&amp;V3</f>
+        <v>Muj&gt;15-EMPH: 20 - 24 años</v>
+      </c>
+      <c r="W1" s="46" t="str">
+        <f t="shared" ref="W1" si="9">+W2&amp;W3</f>
+        <v>Muj&gt;15-EMPH: 25 - 29 años</v>
+      </c>
+      <c r="X1" s="46" t="str">
+        <f t="shared" ref="X1" si="10">+X2&amp;X3</f>
+        <v>Muj&gt;15-EMPH: 30 años o más</v>
+      </c>
+      <c r="Y1" s="46" t="str">
+        <f t="shared" ref="Y1" si="11">+Y2&amp;Y3</f>
+        <v>Muj&gt;15-EMPH: No declarado</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-    </row>
-    <row r="5" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="F2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="I3" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="J3" s="19">
+        <v>4</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="P3" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="19">
         <v>4</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="R3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="44" t="s">
         <v>6</v>
       </c>
@@ -3636,84 +4678,94 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45"/>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48"/>
-    </row>
-    <row r="6" spans="1:25" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="41"/>
+    </row>
+    <row r="6" spans="1:25" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="10">
+      <c r="C6" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1</v>
-      </c>
-      <c r="O6" s="12">
-        <v>2</v>
-      </c>
-      <c r="P6" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>4</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="U6" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="V6" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="W6" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="X6" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y6" s="52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -3790,7 +4842,7 @@
         <v>18044</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -3867,7 +4919,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -3944,7 +4996,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -4021,7 +5073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -4098,7 +5150,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -4175,7 +5227,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -4252,7 +5304,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -4329,7 +5381,7 @@
         <v>9003</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -4406,7 +5458,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>1</v>
       </c>
@@ -4483,7 +5535,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -4560,7 +5612,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>1</v>
       </c>
@@ -4637,7 +5689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>1</v>
       </c>
@@ -4714,7 +5766,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1</v>
       </c>
@@ -4791,7 +5843,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -4868,7 +5920,7 @@
         <v>7313</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>1</v>
       </c>
@@ -4945,7 +5997,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>1</v>
       </c>
@@ -5022,7 +6074,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>2</v>
       </c>
@@ -5099,7 +6151,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>2</v>
       </c>
@@ -5176,7 +6228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>2</v>
       </c>
@@ -5253,7 +6305,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>2</v>
       </c>
@@ -5330,7 +6382,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>2</v>
       </c>
@@ -5407,7 +6459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>2</v>
       </c>
@@ -5484,7 +6536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>2</v>
       </c>
@@ -5561,7 +6613,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>2</v>
       </c>
@@ -5638,7 +6690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>3</v>
       </c>
@@ -5715,7 +6767,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>3</v>
       </c>
@@ -5792,7 +6844,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>3</v>
       </c>
@@ -5869,7 +6921,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>3</v>
       </c>
@@ -5946,7 +6998,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>3</v>
       </c>
@@ -6023,7 +7075,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>3</v>
       </c>
@@ -6100,7 +7152,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>3</v>
       </c>
@@ -6177,7 +7229,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>3</v>
       </c>
@@ -6254,7 +7306,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>3</v>
       </c>
@@ -6331,7 +7383,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>3</v>
       </c>
@@ -6408,7 +7460,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>3</v>
       </c>
@@ -6485,7 +7537,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>3</v>
       </c>
@@ -6562,7 +7614,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>3</v>
       </c>
@@ -6639,7 +7691,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>3</v>
       </c>
@@ -6716,7 +7768,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>3</v>
       </c>
@@ -6793,7 +7845,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>3</v>
       </c>
@@ -6870,7 +7922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>4</v>
       </c>
@@ -6947,7 +7999,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>4</v>
       </c>
@@ -7024,7 +8076,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>4</v>
       </c>
@@ -7101,7 +8153,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>4</v>
       </c>
@@ -7178,7 +8230,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>4</v>
       </c>
@@ -7255,7 +8307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>4</v>
       </c>
@@ -7332,7 +8384,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>4</v>
       </c>
@@ -7409,7 +8461,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>4</v>
       </c>
@@ -7486,7 +8538,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>4</v>
       </c>
@@ -7563,7 +8615,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>4</v>
       </c>
@@ -7640,7 +8692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>4</v>
       </c>
@@ -7717,7 +8769,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>4</v>
       </c>
@@ -7794,7 +8846,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>4</v>
       </c>
@@ -7871,7 +8923,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>4</v>
       </c>
@@ -7948,7 +9000,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>4</v>
       </c>
@@ -8025,7 +9077,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>4</v>
       </c>
@@ -8102,7 +9154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>5</v>
       </c>
@@ -8179,7 +9231,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>5</v>
       </c>
@@ -8256,7 +9308,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>5</v>
       </c>
@@ -8333,7 +9385,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>5</v>
       </c>
@@ -8410,7 +9462,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>5</v>
       </c>
@@ -8487,7 +9539,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>5</v>
       </c>
@@ -8564,7 +9616,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>5</v>
       </c>
@@ -8641,7 +9693,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>5</v>
       </c>
@@ -8718,7 +9770,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>5</v>
       </c>
@@ -8795,7 +9847,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>5</v>
       </c>
@@ -8872,7 +9924,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>5</v>
       </c>
@@ -8949,7 +10001,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>5</v>
       </c>
@@ -9026,7 +10078,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>5</v>
       </c>
@@ -9103,7 +10155,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>5</v>
       </c>
@@ -9180,7 +10232,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>6</v>
       </c>
@@ -9257,7 +10309,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>6</v>
       </c>
@@ -9334,7 +10386,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>6</v>
       </c>
@@ -9411,7 +10463,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>6</v>
       </c>
@@ -9488,7 +10540,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>6</v>
       </c>
@@ -9565,7 +10617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>6</v>
       </c>
@@ -9642,7 +10694,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>6</v>
       </c>
@@ -9719,7 +10771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>6</v>
       </c>
@@ -9796,7 +10848,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>6</v>
       </c>
@@ -9873,7 +10925,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>6</v>
       </c>
@@ -9950,7 +11002,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>6</v>
       </c>
@@ -10027,7 +11079,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>6</v>
       </c>
@@ -10104,7 +11156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>6</v>
       </c>
@@ -10181,7 +11233,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>6</v>
       </c>
@@ -10258,7 +11310,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>7</v>
       </c>
@@ -10335,7 +11387,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>7</v>
       </c>
@@ -10412,7 +11464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>7</v>
       </c>
@@ -10489,7 +11541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>7</v>
       </c>
@@ -10566,7 +11618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>7</v>
       </c>
@@ -10643,7 +11695,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>7</v>
       </c>
@@ -10720,7 +11772,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>7</v>
       </c>
@@ -10797,7 +11849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>7</v>
       </c>
@@ -10874,7 +11926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>7</v>
       </c>
@@ -10951,7 +12003,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>7</v>
       </c>
@@ -11028,7 +12080,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>7</v>
       </c>
@@ -11105,7 +12157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>7</v>
       </c>
@@ -11182,7 +12234,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>7</v>
       </c>
@@ -11259,7 +12311,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>7</v>
       </c>
@@ -11336,7 +12388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>7</v>
       </c>
@@ -11413,7 +12465,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>7</v>
       </c>
@@ -11490,7 +12542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>7</v>
       </c>
@@ -11567,7 +12619,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>7</v>
       </c>
@@ -11644,7 +12696,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>7</v>
       </c>
@@ -11721,7 +12773,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>8</v>
       </c>
@@ -11798,7 +12850,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>8</v>
       </c>
@@ -11875,7 +12927,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>8</v>
       </c>
@@ -11952,7 +13004,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>8</v>
       </c>
@@ -12029,7 +13081,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>8</v>
       </c>
@@ -12106,7 +13158,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>8</v>
       </c>
@@ -12183,7 +13235,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>8</v>
       </c>
@@ -12260,7 +13312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>8</v>
       </c>
@@ -12337,7 +13389,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>9</v>
       </c>
@@ -12414,7 +13466,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>9</v>
       </c>
@@ -12491,7 +13543,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>9</v>
       </c>
@@ -12568,7 +13620,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>9</v>
       </c>
@@ -12645,7 +13697,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>9</v>
       </c>
@@ -12722,7 +13774,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>9</v>
       </c>
@@ -12799,7 +13851,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>9</v>
       </c>
@@ -12876,7 +13928,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>9</v>
       </c>
@@ -12953,7 +14005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>9</v>
       </c>
@@ -13030,7 +14082,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>9</v>
       </c>
@@ -13107,7 +14159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>9</v>
       </c>
@@ -13184,7 +14236,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>9</v>
       </c>
@@ -13261,7 +14313,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>9</v>
       </c>
@@ -13338,7 +14390,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>9</v>
       </c>
@@ -13415,7 +14467,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>9</v>
       </c>
@@ -13492,7 +14544,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>9</v>
       </c>
@@ -13569,7 +14621,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>9</v>
       </c>
@@ -13646,7 +14698,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>9</v>
       </c>
@@ -13723,7 +14775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>9</v>
       </c>
@@ -13800,7 +14852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>9</v>
       </c>
@@ -13877,7 +14929,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>9</v>
       </c>
@@ -13954,7 +15006,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>9</v>
       </c>
@@ -14031,7 +15083,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>9</v>
       </c>
@@ -14108,7 +15160,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>9</v>
       </c>
@@ -14185,7 +15237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>10</v>
       </c>
@@ -14262,7 +15314,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>10</v>
       </c>
@@ -14339,7 +15391,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>10</v>
       </c>
@@ -14416,7 +15468,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>10</v>
       </c>
@@ -14493,7 +15545,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>10</v>
       </c>
@@ -14570,7 +15622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>10</v>
       </c>
@@ -14647,7 +15699,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>10</v>
       </c>
@@ -14724,7 +15776,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>10</v>
       </c>
@@ -14801,7 +15853,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>10</v>
       </c>
@@ -14878,7 +15930,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>10</v>
       </c>
@@ -14955,7 +16007,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>10</v>
       </c>
@@ -15032,7 +16084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>10</v>
       </c>
@@ -15109,7 +16161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>10</v>
       </c>
@@ -15186,7 +16238,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>10</v>
       </c>
@@ -15263,7 +16315,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>10</v>
       </c>
@@ -15340,7 +16392,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>10</v>
       </c>
@@ -15417,7 +16469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>10</v>
       </c>
@@ -15494,7 +16546,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>10</v>
       </c>
@@ -15571,7 +16623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>10</v>
       </c>
@@ -15648,7 +16700,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>10</v>
       </c>
@@ -15725,7 +16777,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>10</v>
       </c>
@@ -15802,7 +16854,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>11</v>
       </c>
@@ -15879,7 +16931,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>11</v>
       </c>
@@ -15956,7 +17008,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>11</v>
       </c>
@@ -16033,7 +17085,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>11</v>
       </c>
@@ -16110,7 +17162,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>11</v>
       </c>
@@ -16187,7 +17239,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>11</v>
       </c>
@@ -16264,7 +17316,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>11</v>
       </c>
@@ -16341,7 +17393,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>11</v>
       </c>
@@ -16418,7 +17470,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>11</v>
       </c>
@@ -16495,7 +17547,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>12</v>
       </c>
@@ -16572,7 +17624,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>12</v>
       </c>
@@ -16649,7 +17701,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>12</v>
       </c>
@@ -16726,7 +17778,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>12</v>
       </c>
@@ -16803,7 +17855,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>12</v>
       </c>
@@ -16880,7 +17932,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>12</v>
       </c>
@@ -16957,7 +18009,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>12</v>
       </c>
@@ -17034,7 +18086,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>12</v>
       </c>
@@ -17111,7 +18163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>12</v>
       </c>
@@ -17188,7 +18240,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>12</v>
       </c>
@@ -17265,7 +18317,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>12</v>
       </c>
@@ -17342,7 +18394,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>12</v>
       </c>
@@ -17419,7 +18471,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>12</v>
       </c>
@@ -17496,7 +18548,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>12</v>
       </c>
@@ -17573,7 +18625,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>12</v>
       </c>
@@ -17650,7 +18702,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>12</v>
       </c>
@@ -17727,7 +18779,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="14">
         <v>12</v>
       </c>
@@ -17804,7 +18856,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="14">
         <v>12</v>
       </c>
@@ -17881,7 +18933,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" s="14">
         <v>12</v>
       </c>
@@ -17958,7 +19010,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="14">
         <v>12</v>
       </c>
@@ -18035,7 +19087,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>12</v>
       </c>
@@ -18112,7 +19164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="14">
         <v>12</v>
       </c>
@@ -18189,7 +19241,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" s="14">
         <v>12</v>
       </c>
@@ -18266,7 +19318,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" s="14">
         <v>12</v>
       </c>
@@ -18343,7 +19395,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
         <v>12</v>
       </c>
@@ -18420,7 +19472,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
         <v>12</v>
       </c>
@@ -18497,7 +19549,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="14">
         <v>12</v>
       </c>
@@ -18574,7 +19626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="14">
         <v>12</v>
       </c>
@@ -18651,7 +19703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="14">
         <v>12</v>
       </c>
@@ -18728,7 +19780,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="14">
         <v>12</v>
       </c>
@@ -18805,7 +19857,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="14">
         <v>13</v>
       </c>
@@ -18882,7 +19934,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="14">
         <v>13</v>
       </c>
@@ -18959,7 +20011,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="14">
         <v>13</v>
       </c>
@@ -19036,7 +20088,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="14">
         <v>13</v>
       </c>
@@ -19113,7 +20165,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="14">
         <v>13</v>
       </c>
@@ -19190,7 +20242,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="14">
         <v>13</v>
       </c>
@@ -19267,7 +20319,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="14">
         <v>13</v>
       </c>
@@ -19344,7 +20396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="14">
         <v>13</v>
       </c>
@@ -19421,7 +20473,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="14">
         <v>13</v>
       </c>
@@ -19498,7 +20550,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="14">
         <v>13</v>
       </c>
@@ -19575,7 +20627,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" s="14">
         <v>13</v>
       </c>
@@ -19652,7 +20704,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" s="14">
         <v>13</v>
       </c>
@@ -19729,7 +20781,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="14">
         <v>13</v>
       </c>
@@ -19806,7 +20858,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" s="14">
         <v>13</v>
       </c>
@@ -19883,7 +20935,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" s="14">
         <v>13</v>
       </c>
@@ -19960,7 +21012,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="14">
         <v>13</v>
       </c>
@@ -20037,7 +21089,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="14">
         <v>13</v>
       </c>
@@ -20114,7 +21166,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="14">
         <v>13</v>
       </c>
@@ -20191,7 +21243,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="14">
         <v>13</v>
       </c>
@@ -20268,7 +21320,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="14">
         <v>13</v>
       </c>
@@ -20345,7 +21397,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="14">
         <v>13</v>
       </c>
@@ -20422,7 +21474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="14">
         <v>13</v>
       </c>
@@ -20499,7 +21551,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="14">
         <v>13</v>
       </c>
@@ -20576,7 +21628,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="14">
         <v>13</v>
       </c>
@@ -20653,7 +21705,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="14">
         <v>13</v>
       </c>
@@ -20730,7 +21782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="14">
         <v>13</v>
       </c>
@@ -20807,7 +21859,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="14">
         <v>13</v>
       </c>
@@ -20884,7 +21936,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="14">
         <v>13</v>
       </c>
@@ -20961,7 +22013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="14">
         <v>13</v>
       </c>
@@ -21038,7 +22090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="14">
         <v>13</v>
       </c>
@@ -21115,7 +22167,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="14">
         <v>13</v>
       </c>
@@ -21192,7 +22244,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="14">
         <v>13</v>
       </c>
@@ -21269,7 +22321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="14">
         <v>13</v>
       </c>
@@ -21346,7 +22398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="14">
         <v>14</v>
       </c>
@@ -21423,7 +22475,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="14">
         <v>14</v>
       </c>
@@ -21500,7 +22552,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" s="14">
         <v>14</v>
       </c>
@@ -21577,7 +22629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" s="14">
         <v>14</v>
       </c>
@@ -21654,7 +22706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" s="14">
         <v>14</v>
       </c>
@@ -21731,7 +22783,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" s="14">
         <v>14</v>
       </c>
@@ -21808,7 +22860,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" s="14">
         <v>14</v>
       </c>
@@ -21885,7 +22937,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="14">
         <v>14</v>
       </c>
@@ -21962,7 +23014,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="14">
         <v>14</v>
       </c>
@@ -22039,7 +23091,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="14">
         <v>14</v>
       </c>
@@ -22116,7 +23168,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="14">
         <v>14</v>
       </c>
@@ -22193,7 +23245,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="14">
         <v>14</v>
       </c>
@@ -22270,7 +23322,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="14">
         <v>14</v>
       </c>
@@ -22347,7 +23399,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="14">
         <v>14</v>
       </c>
@@ -22424,7 +23476,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="14">
         <v>14</v>
       </c>
@@ -22501,7 +23553,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="14">
         <v>14</v>
       </c>
@@ -22578,7 +23630,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="14">
         <v>14</v>
       </c>
@@ -22655,7 +23707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="14">
         <v>14</v>
       </c>
@@ -22732,7 +23784,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="14">
         <v>14</v>
       </c>
@@ -22809,7 +23861,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="14">
         <v>14</v>
       </c>
@@ -22886,7 +23938,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="14">
         <v>14</v>
       </c>
@@ -22963,7 +24015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" s="14">
         <v>15</v>
       </c>
@@ -23040,7 +24092,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" s="14">
         <v>15</v>
       </c>
@@ -23117,7 +24169,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" s="14">
         <v>15</v>
       </c>
@@ -23194,7 +24246,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" s="14">
         <v>15</v>
       </c>
@@ -23271,7 +24323,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" s="14">
         <v>15</v>
       </c>
@@ -23348,7 +24400,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" s="14">
         <v>15</v>
       </c>
@@ -23425,7 +24477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" s="14">
         <v>15</v>
       </c>
@@ -23502,7 +24554,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" s="14">
         <v>15</v>
       </c>
@@ -23579,7 +24631,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" s="14">
         <v>16</v>
       </c>
@@ -23656,7 +24708,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" s="14">
         <v>16</v>
       </c>
@@ -23733,7 +24785,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" s="14">
         <v>16</v>
       </c>
@@ -23810,7 +24862,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" s="14">
         <v>16</v>
       </c>
@@ -23887,7 +24939,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" s="14">
         <v>16</v>
       </c>
@@ -23964,7 +25016,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" s="14">
         <v>16</v>
       </c>
@@ -24041,7 +25093,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" s="14">
         <v>16</v>
       </c>
@@ -24118,7 +25170,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" s="14">
         <v>16</v>
       </c>
@@ -24195,7 +25247,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="14">
         <v>16</v>
       </c>
@@ -24272,7 +25324,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="14">
         <v>16</v>
       </c>
@@ -24349,7 +25401,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" s="14">
         <v>16</v>
       </c>
@@ -24426,7 +25478,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" s="14">
         <v>16</v>
       </c>
@@ -24503,7 +25555,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="14">
         <v>16</v>
       </c>
@@ -24580,7 +25632,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="14">
         <v>16</v>
       </c>
@@ -24657,7 +25709,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="14">
         <v>16</v>
       </c>
@@ -24734,7 +25786,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="14">
         <v>16</v>
       </c>
@@ -24811,7 +25863,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="14">
         <v>16</v>
       </c>
@@ -24888,7 +25940,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" s="14">
         <v>17</v>
       </c>
@@ -24965,7 +26017,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="14">
         <v>17</v>
       </c>
@@ -25042,7 +26094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="14">
         <v>17</v>
       </c>
@@ -25119,7 +26171,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="14">
         <v>17</v>
       </c>
@@ -25196,7 +26248,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="14">
         <v>17</v>
       </c>
@@ -25273,7 +26325,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" s="14">
         <v>17</v>
       </c>
@@ -25350,7 +26402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="14">
         <v>17</v>
       </c>
@@ -25427,7 +26479,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="14">
         <v>17</v>
       </c>
@@ -25504,7 +26556,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="14">
         <v>17</v>
       </c>
@@ -25581,7 +26633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="14">
         <v>17</v>
       </c>
@@ -25658,7 +26710,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="14">
         <v>17</v>
       </c>
@@ -25735,7 +26787,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="14">
         <v>17</v>
       </c>
@@ -25812,7 +26864,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="14">
         <v>17</v>
       </c>
@@ -25889,7 +26941,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="14">
         <v>17</v>
       </c>
@@ -25966,7 +27018,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" s="14">
         <v>18</v>
       </c>
@@ -26043,7 +27095,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" s="14">
         <v>18</v>
       </c>
@@ -26120,7 +27172,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" s="14">
         <v>18</v>
       </c>
@@ -26197,7 +27249,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" s="14">
         <v>18</v>
       </c>
@@ -26274,7 +27326,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" s="14">
         <v>18</v>
       </c>
@@ -26351,7 +27403,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" s="14">
         <v>19</v>
       </c>
@@ -26428,7 +27480,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" s="14">
         <v>19</v>
       </c>
@@ -26505,7 +27557,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" s="14">
         <v>19</v>
       </c>
@@ -26582,7 +27634,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" s="14">
         <v>19</v>
       </c>
@@ -26659,7 +27711,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" s="14">
         <v>19</v>
       </c>
@@ -26736,7 +27788,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" s="14">
         <v>19</v>
       </c>
@@ -26813,7 +27865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" s="14">
         <v>19</v>
       </c>
@@ -26890,7 +27942,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" s="14">
         <v>19</v>
       </c>
@@ -26967,7 +28019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" s="14">
         <v>19</v>
       </c>
@@ -27044,7 +28096,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" s="14">
         <v>19</v>
       </c>
@@ -27121,7 +28173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" s="14">
         <v>19</v>
       </c>
@@ -27198,7 +28250,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" s="14">
         <v>20</v>
       </c>
@@ -27275,7 +28327,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" s="14">
         <v>20</v>
       </c>
@@ -27352,7 +28404,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" s="14">
         <v>20</v>
       </c>
@@ -27429,7 +28481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" s="14">
         <v>20</v>
       </c>
@@ -27506,7 +28558,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" s="14">
         <v>20</v>
       </c>
@@ -27583,7 +28635,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" s="14">
         <v>20</v>
       </c>
@@ -27660,7 +28712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" s="14">
         <v>20</v>
       </c>
@@ -27737,7 +28789,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" s="14">
         <v>20</v>
       </c>
@@ -27814,7 +28866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" s="14">
         <v>20</v>
       </c>
@@ -27891,7 +28943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" s="14">
         <v>20</v>
       </c>
@@ -27968,7 +29020,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" s="14">
         <v>20</v>
       </c>
@@ -28045,7 +29097,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" s="14">
         <v>21</v>
       </c>
@@ -28122,7 +29174,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" s="14">
         <v>21</v>
       </c>
@@ -28199,7 +29251,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" s="14">
         <v>21</v>
       </c>
@@ -28276,7 +29328,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" s="14">
         <v>21</v>
       </c>
@@ -28353,7 +29405,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" s="14">
         <v>21</v>
       </c>
@@ -28430,7 +29482,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328" s="14">
         <v>21</v>
       </c>
@@ -28507,7 +29559,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" s="14">
         <v>21</v>
       </c>
@@ -28584,7 +29636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" s="14">
         <v>22</v>
       </c>
@@ -28661,7 +29713,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" s="14">
         <v>22</v>
       </c>
@@ -28738,7 +29790,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" s="14">
         <v>22</v>
       </c>
@@ -28815,7 +29867,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" s="14">
         <v>22</v>
       </c>
@@ -28892,7 +29944,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334" s="14">
         <v>22</v>
       </c>
@@ -28969,7 +30021,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335" s="14">
         <v>22</v>
       </c>
@@ -29046,7 +30098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336" s="14">
         <v>22</v>
       </c>
@@ -29123,7 +30175,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337" s="14">
         <v>22</v>
       </c>
@@ -29200,7 +30252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338" s="14">
         <v>22</v>
       </c>
@@ -29277,7 +30329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339" s="14">
         <v>22</v>
       </c>
@@ -29354,7 +30406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340" s="14">
         <v>22</v>
       </c>
@@ -29431,7 +30483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341" s="14">
         <v>22</v>
       </c>
@@ -29508,7 +30560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" s="14">
         <v>22</v>
       </c>
@@ -29585,7 +30637,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343" s="14">
         <v>22</v>
       </c>
@@ -29662,7 +30714,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344" s="14">
         <v>22</v>
       </c>
@@ -29739,7 +30791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345" s="14">
         <v>22</v>
       </c>
@@ -29816,99 +30868,94 @@
         <v>160</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A346" s="23">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A346" s="53">
         <v>22</v>
       </c>
-      <c r="B346" s="24" t="s">
+      <c r="B346" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C346" s="25">
+      <c r="C346" s="55">
         <v>2217</v>
       </c>
-      <c r="D346" s="26" t="s">
+      <c r="D346" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="E346" s="27">
+      <c r="E346" s="56">
         <v>8133</v>
       </c>
-      <c r="F346" s="27">
+      <c r="F346" s="56">
         <v>1943</v>
       </c>
-      <c r="G346" s="27">
+      <c r="G346" s="56">
         <v>1091</v>
       </c>
-      <c r="H346" s="27">
+      <c r="H346" s="56">
         <v>1156</v>
       </c>
-      <c r="I346" s="27">
+      <c r="I346" s="56">
         <v>1037</v>
       </c>
-      <c r="J346" s="27">
+      <c r="J346" s="56">
         <v>742</v>
       </c>
-      <c r="K346" s="27">
+      <c r="K346" s="56">
         <v>1771</v>
       </c>
-      <c r="L346" s="27">
+      <c r="L346" s="56">
         <v>393</v>
       </c>
-      <c r="M346" s="27">
+      <c r="M346" s="56">
         <v>27</v>
       </c>
-      <c r="N346" s="27">
+      <c r="N346" s="56">
         <v>1138</v>
       </c>
-      <c r="O346" s="27">
+      <c r="O346" s="56">
         <v>1231</v>
       </c>
-      <c r="P346" s="27">
+      <c r="P346" s="56">
         <v>1067</v>
       </c>
-      <c r="Q346" s="27">
+      <c r="Q346" s="56">
         <v>779</v>
       </c>
-      <c r="R346" s="27">
+      <c r="R346" s="56">
         <v>1555</v>
       </c>
-      <c r="S346" s="27">
+      <c r="S346" s="56">
         <v>98</v>
       </c>
-      <c r="T346" s="27">
+      <c r="T346" s="56">
         <v>1453</v>
       </c>
-      <c r="U346" s="27">
+      <c r="U346" s="56">
         <v>1494</v>
       </c>
-      <c r="V346" s="27">
+      <c r="V346" s="56">
         <v>1881</v>
       </c>
-      <c r="W346" s="27">
+      <c r="W346" s="56">
         <v>454</v>
       </c>
-      <c r="X346" s="27">
+      <c r="X346" s="56">
         <v>175</v>
       </c>
-      <c r="Y346" s="27">
+      <c r="Y346" s="56">
         <v>242</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A347" s="28" t="s">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A347" s="25" t="s">
         <v>360</v>
       </c>
       <c r="B347" s="15"/>
       <c r="D347" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="3">
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:L5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -29918,5 +30965,8 @@
 Censo Nacional de XII de Población y VII de Vivienda&amp;R&amp;G</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>